--- a/InputData/endo-learn/BCSG/BAU CO2 Sequestered Globally.xlsx
+++ b/InputData/endo-learn/BCSG/BAU CO2 Sequestered Globally.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox (Energy Innovation)\EI-PlcyMdl\eps-1.3.3-us-wipB\InputData\ccs\BCSG\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipL\InputData\endo-learn\BCSG\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -117,9 +117,6 @@
     </r>
   </si>
   <si>
-    <t>BAU Carbon Sequestered Globally (tons/yr)</t>
-  </si>
-  <si>
     <t>International Energy Agency</t>
   </si>
   <si>
@@ -155,13 +152,16 @@
   <si>
     <t>the lowest-cost applications.</t>
   </si>
+  <si>
+    <t>BAU Carbon Sequestered Globally (metric tons CO2e/yr)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="#\ ##0"/>
+    <numFmt numFmtId="164" formatCode="#\ ##0"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -254,7 +254,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -262,17 +262,20 @@
     <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -845,82 +848,82 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="38.7109375" customWidth="1"/>
+    <col min="2" max="2" width="38.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B4" s="12">
         <v>2017</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B6" s="13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B6" s="13" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -940,21 +943,21 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="28.265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1328125" customWidth="1"/>
     <col min="3" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="13.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="15" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:1" ht="23.25" x14ac:dyDescent="0.7">
       <c r="A15" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:40" ht="18" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:40" ht="15.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1070,7 +1073,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A18" s="5" t="s">
         <v>4</v>
       </c>
@@ -1216,7 +1219,7 @@
         <v>645.25886199836145</v>
       </c>
     </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A19" s="5" t="s">
         <v>5</v>
       </c>
@@ -1362,7 +1365,7 @@
         <v>140.98274447844116</v>
       </c>
     </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A20" s="7" t="s">
         <v>6</v>
       </c>
@@ -1508,7 +1511,7 @@
         <v>133.61743935810051</v>
       </c>
     </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A21" s="9" t="s">
         <v>7</v>
       </c>
@@ -1654,7 +1657,7 @@
         <v>919.8590458349031</v>
       </c>
     </row>
-    <row r="23" spans="1:40" ht="18" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:40" ht="15.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="3" t="s">
         <v>8</v>
       </c>
@@ -1770,7 +1773,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A24" s="5" t="s">
         <v>4</v>
       </c>
@@ -1918,7 +1921,7 @@
       <c r="AM24" s="5"/>
       <c r="AN24" s="5"/>
     </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A25" s="5" t="s">
         <v>5</v>
       </c>
@@ -2066,7 +2069,7 @@
       <c r="AM25" s="5"/>
       <c r="AN25" s="5"/>
     </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A26" s="7" t="s">
         <v>6</v>
       </c>
@@ -2214,7 +2217,7 @@
       <c r="AM26" s="5"/>
       <c r="AN26" s="5"/>
     </row>
-    <row r="27" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A27" s="9" t="s">
         <v>7</v>
       </c>
@@ -2375,14 +2378,16 @@
   </sheetPr>
   <dimension ref="A1:AJ2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="43.42578125" customWidth="1"/>
+    <col min="1" max="1" width="43.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.45">
       <c r="B1">
         <v>2016</v>
       </c>
@@ -2489,9 +2494,9 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>9</v>
+    <row r="2" spans="1:36" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A2" s="14" t="s">
+        <v>21</v>
       </c>
       <c r="B2" s="11">
         <f>Data!D21*10^6</f>

--- a/InputData/endo-learn/BCSG/BAU CO2 Sequestered Globally.xlsx
+++ b/InputData/endo-learn/BCSG/BAU CO2 Sequestered Globally.xlsx
@@ -1,32 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipL\InputData\endo-learn\BCSG\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\endo-learn\BCSG\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AA84856-6CF0-41A4-8A5B-B108EC39E953}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22635" windowHeight="13365"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
     <sheet name="BCSG" sheetId="3" r:id="rId3"/>
+    <sheet name="SYBCSG" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
     <t>BCSG BAU CO2 Sequestered Globally</t>
   </si>
@@ -155,11 +168,14 @@
   <si>
     <t>BAU Carbon Sequestered Globally (metric tons CO2e/yr)</t>
   </si>
+  <si>
+    <t>SYBCSG Start Year BAU CO2 Sequestered Globally</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#\ ##0"/>
   </numFmts>
@@ -259,7 +275,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -843,92 +859,99 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="38.73046875" customWidth="1"/>
+    <col min="2" max="2" width="38.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A3" s="1" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B4" s="12">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="12">
         <v>2017</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B5" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B6" s="13" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B7" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A9" s="1" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>20</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1"/>
+    <hyperlink ref="B7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -936,28 +959,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A15:AN27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1328125" customWidth="1"/>
+    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" customWidth="1"/>
     <col min="3" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.265625" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="13.1328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="15" spans="1:1" ht="23.25" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:40" ht="15.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:40" ht="18" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1073,7 +1096,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="18" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>4</v>
       </c>
@@ -1219,7 +1242,7 @@
         <v>645.25886199836145</v>
       </c>
     </row>
-    <row r="19" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>5</v>
       </c>
@@ -1365,7 +1388,7 @@
         <v>140.98274447844116</v>
       </c>
     </row>
-    <row r="20" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>6</v>
       </c>
@@ -1511,7 +1534,7 @@
         <v>133.61743935810051</v>
       </c>
     </row>
-    <row r="21" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>7</v>
       </c>
@@ -1657,7 +1680,7 @@
         <v>919.8590458349031</v>
       </c>
     </row>
-    <row r="23" spans="1:40" ht="15.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:40" ht="18" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>8</v>
       </c>
@@ -1773,7 +1796,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="24" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>4</v>
       </c>
@@ -1921,7 +1944,7 @@
       <c r="AM24" s="5"/>
       <c r="AN24" s="5"/>
     </row>
-    <row r="25" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>5</v>
       </c>
@@ -2069,7 +2092,7 @@
       <c r="AM25" s="5"/>
       <c r="AN25" s="5"/>
     </row>
-    <row r="26" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>6</v>
       </c>
@@ -2217,7 +2240,7 @@
       <c r="AM26" s="5"/>
       <c r="AN26" s="5"/>
     </row>
-    <row r="27" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>7</v>
       </c>
@@ -2372,271 +2395,271 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
-    <tabColor theme="3"/>
+    <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:AJ2"/>
+  <dimension ref="A1:AE2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.3984375" customWidth="1"/>
+    <col min="1" max="1" width="43.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B1">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="C1">
-        <v>2017</v>
+        <v>2022</v>
       </c>
       <c r="D1">
-        <v>2018</v>
+        <v>2023</v>
       </c>
       <c r="E1">
-        <v>2019</v>
+        <v>2024</v>
       </c>
       <c r="F1">
-        <v>2020</v>
+        <v>2025</v>
       </c>
       <c r="G1">
-        <v>2021</v>
+        <v>2026</v>
       </c>
       <c r="H1">
-        <v>2022</v>
+        <v>2027</v>
       </c>
       <c r="I1">
-        <v>2023</v>
+        <v>2028</v>
       </c>
       <c r="J1">
-        <v>2024</v>
+        <v>2029</v>
       </c>
       <c r="K1">
-        <v>2025</v>
+        <v>2030</v>
       </c>
       <c r="L1">
-        <v>2026</v>
+        <v>2031</v>
       </c>
       <c r="M1">
-        <v>2027</v>
+        <v>2032</v>
       </c>
       <c r="N1">
-        <v>2028</v>
+        <v>2033</v>
       </c>
       <c r="O1">
-        <v>2029</v>
+        <v>2034</v>
       </c>
       <c r="P1">
-        <v>2030</v>
+        <v>2035</v>
       </c>
       <c r="Q1">
-        <v>2031</v>
+        <v>2036</v>
       </c>
       <c r="R1">
-        <v>2032</v>
+        <v>2037</v>
       </c>
       <c r="S1">
-        <v>2033</v>
+        <v>2038</v>
       </c>
       <c r="T1">
-        <v>2034</v>
+        <v>2039</v>
       </c>
       <c r="U1">
-        <v>2035</v>
+        <v>2040</v>
       </c>
       <c r="V1">
-        <v>2036</v>
+        <v>2041</v>
       </c>
       <c r="W1">
-        <v>2037</v>
+        <v>2042</v>
       </c>
       <c r="X1">
-        <v>2038</v>
+        <v>2043</v>
       </c>
       <c r="Y1">
-        <v>2039</v>
+        <v>2044</v>
       </c>
       <c r="Z1">
-        <v>2040</v>
+        <v>2045</v>
       </c>
       <c r="AA1">
-        <v>2041</v>
+        <v>2046</v>
       </c>
       <c r="AB1">
-        <v>2042</v>
+        <v>2047</v>
       </c>
       <c r="AC1">
-        <v>2043</v>
+        <v>2048</v>
       </c>
       <c r="AD1">
-        <v>2044</v>
+        <v>2049</v>
       </c>
       <c r="AE1">
-        <v>2045</v>
-      </c>
-      <c r="AF1">
-        <v>2046</v>
-      </c>
-      <c r="AG1">
-        <v>2047</v>
-      </c>
-      <c r="AH1">
-        <v>2048</v>
-      </c>
-      <c r="AI1">
-        <v>2049</v>
-      </c>
-      <c r="AJ1">
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:31" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>21</v>
       </c>
       <c r="B2" s="11">
-        <f>Data!D21*10^6</f>
-        <v>54888170.608915798</v>
+        <f>Data!I21*10^6</f>
+        <v>192108597.13120529</v>
       </c>
       <c r="C2" s="11">
-        <f>Data!E21*10^6</f>
-        <v>82332255.913373694</v>
+        <f>Data!J21*10^6</f>
+        <v>219552682.43566319</v>
       </c>
       <c r="D2" s="11">
-        <f>Data!F21*10^6</f>
-        <v>109776341.2178316</v>
+        <f>Data!K21*10^6</f>
+        <v>246996767.7401211</v>
       </c>
       <c r="E2" s="11">
-        <f>Data!G21*10^6</f>
-        <v>137220426.52228951</v>
+        <f>Data!L21*10^6</f>
+        <v>274440853.04457903</v>
       </c>
       <c r="F2" s="11">
+        <f>Data!M21*10^6</f>
+        <v>301884938.34903687</v>
+      </c>
+      <c r="G2" s="11">
+        <f>Data!N21*10^6</f>
+        <v>306967130.85742247</v>
+      </c>
+      <c r="H2" s="11">
+        <f>Data!O21*10^6</f>
+        <v>312049323.36580819</v>
+      </c>
+      <c r="I2" s="11">
+        <f>Data!P21*10^6</f>
+        <v>317131515.87419373</v>
+      </c>
+      <c r="J2" s="11">
+        <f>Data!Q21*10^6</f>
+        <v>322213708.38257939</v>
+      </c>
+      <c r="K2" s="11">
+        <f>Data!R21*10^6</f>
+        <v>327295900.89096504</v>
+      </c>
+      <c r="L2" s="11">
+        <f>Data!S21*10^6</f>
+        <v>351613892.14196104</v>
+      </c>
+      <c r="M2" s="11">
+        <f>Data!T21*10^6</f>
+        <v>375931883.39295703</v>
+      </c>
+      <c r="N2" s="11">
+        <f>Data!U21*10^6</f>
+        <v>400249874.64395303</v>
+      </c>
+      <c r="O2" s="11">
+        <f>Data!V21*10^6</f>
+        <v>424567865.89494902</v>
+      </c>
+      <c r="P2" s="11">
+        <f>Data!W21*10^6</f>
+        <v>448885857.14594495</v>
+      </c>
+      <c r="Q2" s="11">
+        <f>Data!X21*10^6</f>
+        <v>480205173.47676724</v>
+      </c>
+      <c r="R2" s="11">
+        <f>Data!Y21*10^6</f>
+        <v>511524489.80758965</v>
+      </c>
+      <c r="S2" s="11">
+        <f>Data!Z21*10^6</f>
+        <v>542843806.138412</v>
+      </c>
+      <c r="T2" s="11">
+        <f>Data!AA21*10^6</f>
+        <v>574163122.46923435</v>
+      </c>
+      <c r="U2" s="11">
+        <f>Data!AB21*10^6</f>
+        <v>605482438.80005658</v>
+      </c>
+      <c r="V2" s="11">
+        <f>Data!AC21*10^6</f>
+        <v>627999020.29315913</v>
+      </c>
+      <c r="W2" s="11">
+        <f>Data!AD21*10^6</f>
+        <v>650515601.78626168</v>
+      </c>
+      <c r="X2" s="11">
+        <f>Data!AE21*10^6</f>
+        <v>673032183.27936423</v>
+      </c>
+      <c r="Y2" s="11">
+        <f>Data!AF21*10^6</f>
+        <v>695548764.77246666</v>
+      </c>
+      <c r="Z2" s="11">
+        <f>Data!AG21*10^6</f>
+        <v>718065346.26556909</v>
+      </c>
+      <c r="AA2" s="11">
+        <f>Data!AH21*10^6</f>
+        <v>758424086.17943585</v>
+      </c>
+      <c r="AB2" s="11">
+        <f>Data!AI21*10^6</f>
+        <v>798782826.09330285</v>
+      </c>
+      <c r="AC2" s="11">
+        <f>Data!AJ21*10^6</f>
+        <v>839141566.0071696</v>
+      </c>
+      <c r="AD2" s="11">
+        <f>Data!AK21*10^6</f>
+        <v>879500305.92103636</v>
+      </c>
+      <c r="AE2" s="11">
+        <f>Data!AL21*10^6</f>
+        <v>919859045.83490312</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E2EAEFB-C5AA-4474-B6C9-67ADB3F5550A}">
+  <sheetPr>
+    <tabColor theme="8" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="11">
         <f>Data!H21*10^6</f>
         <v>164664511.82674739</v>
-      </c>
-      <c r="G2" s="11">
-        <f>Data!I21*10^6</f>
-        <v>192108597.13120529</v>
-      </c>
-      <c r="H2" s="11">
-        <f>Data!J21*10^6</f>
-        <v>219552682.43566319</v>
-      </c>
-      <c r="I2" s="11">
-        <f>Data!K21*10^6</f>
-        <v>246996767.7401211</v>
-      </c>
-      <c r="J2" s="11">
-        <f>Data!L21*10^6</f>
-        <v>274440853.04457903</v>
-      </c>
-      <c r="K2" s="11">
-        <f>Data!M21*10^6</f>
-        <v>301884938.34903687</v>
-      </c>
-      <c r="L2" s="11">
-        <f>Data!N21*10^6</f>
-        <v>306967130.85742247</v>
-      </c>
-      <c r="M2" s="11">
-        <f>Data!O21*10^6</f>
-        <v>312049323.36580819</v>
-      </c>
-      <c r="N2" s="11">
-        <f>Data!P21*10^6</f>
-        <v>317131515.87419373</v>
-      </c>
-      <c r="O2" s="11">
-        <f>Data!Q21*10^6</f>
-        <v>322213708.38257939</v>
-      </c>
-      <c r="P2" s="11">
-        <f>Data!R21*10^6</f>
-        <v>327295900.89096504</v>
-      </c>
-      <c r="Q2" s="11">
-        <f>Data!S21*10^6</f>
-        <v>351613892.14196104</v>
-      </c>
-      <c r="R2" s="11">
-        <f>Data!T21*10^6</f>
-        <v>375931883.39295703</v>
-      </c>
-      <c r="S2" s="11">
-        <f>Data!U21*10^6</f>
-        <v>400249874.64395303</v>
-      </c>
-      <c r="T2" s="11">
-        <f>Data!V21*10^6</f>
-        <v>424567865.89494902</v>
-      </c>
-      <c r="U2" s="11">
-        <f>Data!W21*10^6</f>
-        <v>448885857.14594495</v>
-      </c>
-      <c r="V2" s="11">
-        <f>Data!X21*10^6</f>
-        <v>480205173.47676724</v>
-      </c>
-      <c r="W2" s="11">
-        <f>Data!Y21*10^6</f>
-        <v>511524489.80758965</v>
-      </c>
-      <c r="X2" s="11">
-        <f>Data!Z21*10^6</f>
-        <v>542843806.138412</v>
-      </c>
-      <c r="Y2" s="11">
-        <f>Data!AA21*10^6</f>
-        <v>574163122.46923435</v>
-      </c>
-      <c r="Z2" s="11">
-        <f>Data!AB21*10^6</f>
-        <v>605482438.80005658</v>
-      </c>
-      <c r="AA2" s="11">
-        <f>Data!AC21*10^6</f>
-        <v>627999020.29315913</v>
-      </c>
-      <c r="AB2" s="11">
-        <f>Data!AD21*10^6</f>
-        <v>650515601.78626168</v>
-      </c>
-      <c r="AC2" s="11">
-        <f>Data!AE21*10^6</f>
-        <v>673032183.27936423</v>
-      </c>
-      <c r="AD2" s="11">
-        <f>Data!AF21*10^6</f>
-        <v>695548764.77246666</v>
-      </c>
-      <c r="AE2" s="11">
-        <f>Data!AG21*10^6</f>
-        <v>718065346.26556909</v>
-      </c>
-      <c r="AF2" s="11">
-        <f>Data!AH21*10^6</f>
-        <v>758424086.17943585</v>
-      </c>
-      <c r="AG2" s="11">
-        <f>Data!AI21*10^6</f>
-        <v>798782826.09330285</v>
-      </c>
-      <c r="AH2" s="11">
-        <f>Data!AJ21*10^6</f>
-        <v>839141566.0071696</v>
-      </c>
-      <c r="AI2" s="11">
-        <f>Data!AK21*10^6</f>
-        <v>879500305.92103636</v>
-      </c>
-      <c r="AJ2" s="11">
-        <f>Data!AL21*10^6</f>
-        <v>919859045.83490312</v>
       </c>
     </row>
   </sheetData>
